--- a/data/trans_bre/P33A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P33A-Estudios-trans_bre.xlsx
@@ -627,7 +627,7 @@
         <v>-0.1421410739848389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.1539586527801112</v>
+        <v>-0.1539586527801111</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.5839046102853</v>
+        <v>-17.29463928525582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.78833752906512</v>
+        <v>-16.27690095608789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.92215302034979</v>
+        <v>-16.00328073536173</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2026802828125596</v>
+        <v>-0.1969149508312657</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1846080607953676</v>
+        <v>-0.1887212490324786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2075489147888324</v>
+        <v>-0.2079772900781584</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.54608809854208</v>
+        <v>-10.41473965088508</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.91582955883753</v>
+        <v>-7.816289640311677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.112612781630031</v>
+        <v>-7.18388418681012</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.1249370709607116</v>
+        <v>-0.1236533343881827</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.09692862268258014</v>
+        <v>-0.09564527262239431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1004700378434263</v>
+        <v>-0.09971127800252048</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-15.25362161936074</v>
+        <v>-15.4475666240501</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.37649390307306</v>
+        <v>-12.5705114379993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.81228592268247</v>
+        <v>-11.00517392844933</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1765950704074229</v>
+        <v>-0.1780801728084903</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1442609235396016</v>
+        <v>-0.1463425726876743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1257499829631988</v>
+        <v>-0.1275965435845221</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-9.833056210800088</v>
+        <v>-9.799894945979961</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.137446985696609</v>
+        <v>-7.130258412236715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-6.002668510739579</v>
+        <v>-6.303313873268269</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1158951304244398</v>
+        <v>-0.1167602211394565</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08543084506062366</v>
+        <v>-0.08535009382816322</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07221217056665541</v>
+        <v>-0.07497005170136975</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-10.10032602809349</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.042251594792323</v>
+        <v>-4.042251594792335</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.02089230663282625</v>
@@ -791,7 +791,7 @@
         <v>-0.1257574581842419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.04875673713776368</v>
+        <v>-0.04875673713776382</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.922534431157031</v>
+        <v>-7.301210981168972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.24694622147784</v>
+        <v>-15.34262230033505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.915598212399654</v>
+        <v>-7.991690943285063</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.08511726630328249</v>
+        <v>-0.08976025505349458</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1867287507088172</v>
+        <v>-0.1870065806240041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09308635348795298</v>
+        <v>-0.09388767290139791</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.760795020303172</v>
+        <v>3.580505205801259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.144627630152891</v>
+        <v>-4.46090250079228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.05491613912329581</v>
+        <v>0.1606925285586978</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.06243255164227499</v>
+        <v>0.04756941719634333</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.06606544654025338</v>
+        <v>-0.05818647774600286</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.0006714641020687956</v>
+        <v>0.002093260629891642</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-10.47568953520364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-8.927247929480764</v>
+        <v>-8.927247929480775</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1371060394051598</v>
@@ -873,7 +873,7 @@
         <v>-0.1244746430369762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1077396453148427</v>
+        <v>-0.1077396453148428</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.57902697156836</v>
+        <v>-13.7079783897033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.48341081444066</v>
+        <v>-12.67661727613988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.74460086530937</v>
+        <v>-10.82531687573369</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1593307957401829</v>
+        <v>-0.1596399203826451</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1460528124191332</v>
+        <v>-0.149746221701488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1285151792214688</v>
+        <v>-0.1290549234077035</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-9.675067656367464</v>
+        <v>-9.610729048360184</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.290957042913712</v>
+        <v>-8.590954987395564</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-6.959084518934179</v>
+        <v>-7.127151344261917</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1149888702404893</v>
+        <v>-0.114160219306717</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09996999885126744</v>
+        <v>-0.103105506934571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.08475696664105975</v>
+        <v>-0.08660503347866096</v>
       </c>
     </row>
     <row r="16">
